--- a/001_プロジェクト管理/001_帳票/テスト評価仕様書.xlsx
+++ b/001_プロジェクト管理/001_帳票/テスト評価仕様書.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\document\share\document\001_プロジェクト管理\001_帳票\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ShotaTsuji\work\doc\share\001_プロジェクト管理\001_帳票\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D356368-6805-4954-B256-13C120D662DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1136D537-A9CB-46F8-9221-91B7AA90F541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{F6541F5E-7EC9-4B75-8D91-6FA5EE74B783}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{F6541F5E-7EC9-4B75-8D91-6FA5EE74B783}"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="5" r:id="rId1"/>
@@ -27,13 +27,6 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -492,7 +485,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -502,34 +495,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
@@ -537,21 +512,6 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -576,6 +536,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -905,150 +877,143 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="6" max="6" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C4" s="16" t="s">
+    <row r="4" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C4" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="10"/>
-    </row>
-    <row r="5" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="10"/>
-    </row>
-    <row r="6" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="10"/>
-    </row>
-    <row r="7" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="10"/>
-    </row>
-    <row r="8" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="10"/>
-    </row>
-    <row r="9" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="3:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="7"/>
-    </row>
-    <row r="11" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-    </row>
-    <row r="12" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="5"/>
+    </row>
+    <row r="6" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="5"/>
+    </row>
+    <row r="9" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="5"/>
+    </row>
+    <row r="10" spans="3:13" ht="18.75" customHeight="1" x14ac:dyDescent="1.1000000000000001">
+      <c r="C10" s="20"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="1.1000000000000001">
       <c r="F12" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G12" s="15" t="str">
+      <c r="G12" s="18" t="str">
         <f>IF(INDEX(変更履歴!B3:B40, COUNTA(変更履歴!B3:B40)) = "", "", INDEX(変更履歴!B3:B40, COUNTA(変更履歴!B3:B40)))</f>
         <v>1.0</v>
       </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="1.1000000000000001">
       <c r="F13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G13" s="15" t="str">
+      <c r="G13" s="18" t="str">
         <f>IF(INDEX(変更履歴!D3:D40, COUNTA(変更履歴!D3:D40)) = "", "", INDEX(変更履歴!D3:D40, COUNTA(変更履歴!D3:D40)))</f>
         <v/>
       </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="H13" s="18"/>
+      <c r="I13" s="18"/>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="1.1000000000000001">
       <c r="F14" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G14" s="15" t="str">
+      <c r="G14" s="18" t="str">
         <f>IF(INDEX(変更履歴!C3:C40, COUNTA(変更履歴!C3:C40)) = "", "", INDEX(変更履歴!C3:C40, COUNTA(変更履歴!C3:C40)))</f>
         <v/>
       </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="3:15" x14ac:dyDescent="0.4">
-      <c r="F15" s="7"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="N15" s="7"/>
-    </row>
-    <row r="16" spans="3:15" x14ac:dyDescent="0.4">
+      <c r="H14" s="18"/>
+      <c r="I14" s="18"/>
+    </row>
+    <row r="15" spans="3:13" x14ac:dyDescent="1.1000000000000001">
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="1.1000000000000001">
       <c r="K16" s="2" t="s">
         <v>33</v>
       </c>
@@ -1058,60 +1023,53 @@
       <c r="M16" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N16" s="7"/>
-      <c r="O16" s="7"/>
-    </row>
-    <row r="17" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="J17" s="13"/>
+    </row>
+    <row r="17" spans="6:15" x14ac:dyDescent="1.1000000000000001">
+      <c r="J17" s="7"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
-      <c r="N17" s="7"/>
-      <c r="O17" s="7"/>
-    </row>
-    <row r="18" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="J18" s="7"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15"/>
-      <c r="M18" s="15"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="11"/>
-    </row>
-    <row r="19" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="J19" s="7"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15"/>
-      <c r="M19" s="15"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="11"/>
-    </row>
-    <row r="20" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="J20" s="7"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15"/>
-      <c r="M20" s="15"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="11"/>
-    </row>
-    <row r="23" spans="6:15" x14ac:dyDescent="0.4">
-      <c r="F23" s="19" t="s">
+    </row>
+    <row r="18" spans="6:15" x14ac:dyDescent="1.1000000000000001">
+      <c r="K18" s="18"/>
+      <c r="L18" s="18"/>
+      <c r="M18" s="18"/>
+      <c r="N18" s="17"/>
+      <c r="O18" s="6"/>
+    </row>
+    <row r="19" spans="6:15" x14ac:dyDescent="1.1000000000000001">
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="17"/>
+      <c r="O19" s="6"/>
+    </row>
+    <row r="20" spans="6:15" x14ac:dyDescent="1.1000000000000001">
+      <c r="K20" s="18"/>
+      <c r="L20" s="18"/>
+      <c r="M20" s="18"/>
+      <c r="N20" s="17"/>
+      <c r="O20" s="6"/>
+    </row>
+    <row r="23" spans="6:15" x14ac:dyDescent="1.1000000000000001">
+      <c r="F23" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="G23" s="19"/>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="C4:L10"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="L18:L20"/>
     <mergeCell ref="N18:N20"/>
     <mergeCell ref="F23:I23"/>
     <mergeCell ref="M18:M20"/>
     <mergeCell ref="G12:I12"/>
     <mergeCell ref="G13:I13"/>
     <mergeCell ref="G14:I14"/>
-    <mergeCell ref="C4:L10"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="L18:L20"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1121,11 +1079,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43AB87D6-E4D7-4D2D-83EA-8A90A0755F04}">
-  <dimension ref="B2:F43"/>
+  <dimension ref="B2:F40"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="9.25" bestFit="1" customWidth="1"/>
@@ -1135,25 +1093,25 @@
     <col min="7" max="7" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B2" s="20" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="C2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="E2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="F2" s="9" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B3" s="14" t="s">
+    <row r="3" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="8" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="1"/>
@@ -1165,282 +1123,264 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1454,49 +1394,39 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DD5578-F1A4-4915-9A66-570C5919389F}">
-  <dimension ref="B2:I14"/>
+  <dimension ref="B2:F14"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="1" max="1" width="7.125" customWidth="1"/>
     <col min="2" max="2" width="19.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B2" s="22" t="s">
+    <row r="2" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B3" s="21" t="s">
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="21" t="s">
+      <c r="D3" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="21" t="s">
+      <c r="E3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" s="2"/>
       <c r="C4" s="2">
         <f ca="1">IF(B4 = "", 0, INDIRECT(B4&amp;"!"&amp;"I3"))</f>
@@ -1514,11 +1444,8 @@
         <f ca="1">IF(B4 = "", 0, INDIRECT(B4&amp;"!"&amp;"I6"))</f>
         <v>0</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="8"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" s="2"/>
       <c r="C5" s="2">
         <f t="shared" ref="C5:C6" ca="1" si="0">IF(B5 = "", 0, INDIRECT(B5&amp;"!"&amp;"I3"))</f>
@@ -1536,11 +1463,8 @@
         <f ca="1">IF(B5 = "", 0, INDIRECT(B5&amp;"!"&amp;"I6"))</f>
         <v>0</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="8"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B6" s="2"/>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -1558,11 +1482,8 @@
         <f ca="1">IF(B6 = "", 0, INDIRECT(B6&amp;"!"&amp;"I6"))</f>
         <v>0</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="8"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
@@ -1582,40 +1503,30 @@
         <f ca="1">SUM(F4:F4)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="8"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B9" s="23" t="s">
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B10" s="24" t="s">
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B10" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="24" t="s">
+      <c r="F10" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B11" s="2" t="str">
         <f>IF(B4 = "", "", B4)</f>
         <v/>
@@ -1636,11 +1547,8 @@
         <f ca="1">IF(B11 = "", 0, INDIRECT(B11&amp;"!"&amp;"O6"))</f>
         <v>0</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B12" s="2"/>
       <c r="C12" s="2">
         <f t="shared" ref="C12:C13" ca="1" si="3">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O3"))</f>
@@ -1658,11 +1566,8 @@
         <f t="shared" ref="F12:F13" ca="1" si="6">IF(B12 = "", 0, INDIRECT(B12&amp;"!"&amp;"O6"))</f>
         <v>0</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="1.1000000000000001">
       <c r="B13" s="2"/>
       <c r="C13" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -1680,12 +1585,9 @@
         <f t="shared" ca="1" si="6"/>
         <v>0</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
-      <c r="B14" s="9" t="s">
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="1.1000000000000001">
+      <c r="B14" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C14" s="2">
@@ -1704,9 +1606,6 @@
         <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -1721,7 +1620,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="1" max="1" width="6.5" customWidth="1"/>
     <col min="2" max="2" width="7.125" bestFit="1" customWidth="1"/>
@@ -1742,33 +1641,33 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B2" s="25" t="s">
+    <row r="2" spans="2:19" x14ac:dyDescent="1.1000000000000001">
+      <c r="B2" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C2" s="26"/>
-      <c r="D2" s="25" t="s">
+      <c r="C2" s="15"/>
+      <c r="D2" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="26"/>
-      <c r="H2" s="21" t="s">
+      <c r="E2" s="15"/>
+      <c r="H2" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="N2" s="27" t="s">
+      <c r="N2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="27" t="s">
+      <c r="O2" s="16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B3" s="5"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="4"/>
+    <row r="3" spans="2:19" x14ac:dyDescent="1.1000000000000001">
+      <c r="B3" s="4"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="3"/>
       <c r="H3" s="2" t="s">
         <v>17</v>
       </c>
@@ -1784,7 +1683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="H4" s="2" t="s">
         <v>19</v>
       </c>
@@ -1800,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="H5" s="2" t="s">
         <v>39</v>
       </c>
@@ -1816,7 +1715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="H6" s="2" t="s">
         <v>21</v>
       </c>
@@ -1832,71 +1731,71 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="H8" s="3" t="s">
+    <row r="8" spans="2:19" x14ac:dyDescent="1.1000000000000001">
+      <c r="H8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.4">
-      <c r="B9" s="20" t="s">
+    <row r="9" spans="2:19" x14ac:dyDescent="1.1000000000000001">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="20" t="s">
+      <c r="F9" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="20" t="s">
+      <c r="G9" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="21" t="s">
+      <c r="H9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="21" t="s">
+      <c r="I9" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="21" t="s">
+      <c r="J9" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="21" t="s">
+      <c r="K9" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="21" t="s">
+      <c r="L9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M9" s="21" t="s">
+      <c r="M9" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N9" s="24" t="s">
+      <c r="N9" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="O9" s="24" t="s">
+      <c r="O9" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="P9" s="24" t="s">
+      <c r="P9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="Q9" s="24" t="s">
+      <c r="Q9" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="R9" s="24" t="s">
+      <c r="R9" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="S9" s="24" t="s">
+      <c r="S9" s="13" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B10" s="2" t="str">
         <f>IF(C10 = "", "", ROW() - 9)</f>
         <v/>
@@ -1919,7 +1818,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B11" s="2" t="str">
         <f t="shared" ref="B11:B74" si="0">IF(C11 = "", "", ROW() - 9)</f>
         <v/>
@@ -1942,7 +1841,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B12" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1965,7 +1864,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B13" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -1988,7 +1887,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B14" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2011,7 +1910,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B15" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2034,7 +1933,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="16" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B16" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2057,7 +1956,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
     </row>
-    <row r="17" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B17" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2080,7 +1979,7 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
     </row>
-    <row r="18" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B18" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2103,7 +2002,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
     </row>
-    <row r="19" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B19" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2126,7 +2025,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
     </row>
-    <row r="20" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B20" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2149,7 +2048,7 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
     </row>
-    <row r="21" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B21" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2172,7 +2071,7 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
     </row>
-    <row r="22" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B22" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2195,7 +2094,7 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
     </row>
-    <row r="23" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B23" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2218,7 +2117,7 @@
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
     </row>
-    <row r="24" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B24" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2241,7 +2140,7 @@
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
     </row>
-    <row r="25" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B25" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2264,7 +2163,7 @@
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
     </row>
-    <row r="26" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B26" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2287,7 +2186,7 @@
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
     </row>
-    <row r="27" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B27" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2310,7 +2209,7 @@
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
     </row>
-    <row r="28" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B28" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2333,7 +2232,7 @@
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
     </row>
-    <row r="29" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B29" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2356,7 +2255,7 @@
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
     </row>
-    <row r="30" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B30" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2379,7 +2278,7 @@
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
     </row>
-    <row r="31" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B31" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2402,7 +2301,7 @@
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
     </row>
-    <row r="32" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B32" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2425,7 +2324,7 @@
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B33" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2448,7 +2347,7 @@
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="34" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B34" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2471,7 +2370,7 @@
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
     </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B35" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2494,7 +2393,7 @@
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
     </row>
-    <row r="36" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B36" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2517,7 +2416,7 @@
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B37" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2540,7 +2439,7 @@
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="38" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B38" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2563,7 +2462,7 @@
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B39" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2586,7 +2485,7 @@
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
     </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="40" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B40" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2609,7 +2508,7 @@
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
     </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B41" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2632,7 +2531,7 @@
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B42" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2655,7 +2554,7 @@
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B43" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2678,7 +2577,7 @@
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="44" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B44" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2701,7 +2600,7 @@
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B45" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2724,7 +2623,7 @@
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="46" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B46" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2747,7 +2646,7 @@
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B47" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2770,7 +2669,7 @@
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B48" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2793,7 +2692,7 @@
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
     </row>
-    <row r="49" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="49" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B49" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2816,7 +2715,7 @@
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
     </row>
-    <row r="50" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="50" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B50" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2839,7 +2738,7 @@
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
     </row>
-    <row r="51" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="51" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B51" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2862,7 +2761,7 @@
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
     </row>
-    <row r="52" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="52" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B52" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2885,7 +2784,7 @@
       <c r="R52" s="2"/>
       <c r="S52" s="2"/>
     </row>
-    <row r="53" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B53" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2908,7 +2807,7 @@
       <c r="R53" s="2"/>
       <c r="S53" s="2"/>
     </row>
-    <row r="54" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="54" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B54" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2931,7 +2830,7 @@
       <c r="R54" s="2"/>
       <c r="S54" s="2"/>
     </row>
-    <row r="55" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="55" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B55" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2954,7 +2853,7 @@
       <c r="R55" s="2"/>
       <c r="S55" s="2"/>
     </row>
-    <row r="56" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B56" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -2977,7 +2876,7 @@
       <c r="R56" s="2"/>
       <c r="S56" s="2"/>
     </row>
-    <row r="57" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B57" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3000,7 +2899,7 @@
       <c r="R57" s="2"/>
       <c r="S57" s="2"/>
     </row>
-    <row r="58" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B58" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3023,7 +2922,7 @@
       <c r="R58" s="2"/>
       <c r="S58" s="2"/>
     </row>
-    <row r="59" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="59" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B59" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3046,7 +2945,7 @@
       <c r="R59" s="2"/>
       <c r="S59" s="2"/>
     </row>
-    <row r="60" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="60" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B60" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3069,7 +2968,7 @@
       <c r="R60" s="2"/>
       <c r="S60" s="2"/>
     </row>
-    <row r="61" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="61" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B61" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3092,7 +2991,7 @@
       <c r="R61" s="2"/>
       <c r="S61" s="2"/>
     </row>
-    <row r="62" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="62" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B62" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3115,7 +3014,7 @@
       <c r="R62" s="2"/>
       <c r="S62" s="2"/>
     </row>
-    <row r="63" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="63" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B63" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3138,7 +3037,7 @@
       <c r="R63" s="2"/>
       <c r="S63" s="2"/>
     </row>
-    <row r="64" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B64" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3161,7 +3060,7 @@
       <c r="R64" s="2"/>
       <c r="S64" s="2"/>
     </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="65" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B65" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3184,7 +3083,7 @@
       <c r="R65" s="2"/>
       <c r="S65" s="2"/>
     </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B66" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3207,7 +3106,7 @@
       <c r="R66" s="2"/>
       <c r="S66" s="2"/>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B67" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3230,7 +3129,7 @@
       <c r="R67" s="2"/>
       <c r="S67" s="2"/>
     </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B68" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3253,7 +3152,7 @@
       <c r="R68" s="2"/>
       <c r="S68" s="2"/>
     </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B69" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3276,7 +3175,7 @@
       <c r="R69" s="2"/>
       <c r="S69" s="2"/>
     </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B70" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3299,7 +3198,7 @@
       <c r="R70" s="2"/>
       <c r="S70" s="2"/>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B71" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3322,7 +3221,7 @@
       <c r="R71" s="2"/>
       <c r="S71" s="2"/>
     </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B72" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3345,7 +3244,7 @@
       <c r="R72" s="2"/>
       <c r="S72" s="2"/>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B73" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3368,7 +3267,7 @@
       <c r="R73" s="2"/>
       <c r="S73" s="2"/>
     </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B74" s="2" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -3391,7 +3290,7 @@
       <c r="R74" s="2"/>
       <c r="S74" s="2"/>
     </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B75" s="2" t="str">
         <f t="shared" ref="B75:B109" si="1">IF(C75 = "", "", ROW() - 9)</f>
         <v/>
@@ -3414,7 +3313,7 @@
       <c r="R75" s="2"/>
       <c r="S75" s="2"/>
     </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B76" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3437,7 +3336,7 @@
       <c r="R76" s="2"/>
       <c r="S76" s="2"/>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B77" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3460,7 +3359,7 @@
       <c r="R77" s="2"/>
       <c r="S77" s="2"/>
     </row>
-    <row r="78" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B78" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3483,7 +3382,7 @@
       <c r="R78" s="2"/>
       <c r="S78" s="2"/>
     </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B79" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3506,7 +3405,7 @@
       <c r="R79" s="2"/>
       <c r="S79" s="2"/>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B80" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3529,7 +3428,7 @@
       <c r="R80" s="2"/>
       <c r="S80" s="2"/>
     </row>
-    <row r="81" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B81" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3552,7 +3451,7 @@
       <c r="R81" s="2"/>
       <c r="S81" s="2"/>
     </row>
-    <row r="82" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B82" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3575,7 +3474,7 @@
       <c r="R82" s="2"/>
       <c r="S82" s="2"/>
     </row>
-    <row r="83" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B83" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3598,7 +3497,7 @@
       <c r="R83" s="2"/>
       <c r="S83" s="2"/>
     </row>
-    <row r="84" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B84" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3621,7 +3520,7 @@
       <c r="R84" s="2"/>
       <c r="S84" s="2"/>
     </row>
-    <row r="85" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B85" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3644,7 +3543,7 @@
       <c r="R85" s="2"/>
       <c r="S85" s="2"/>
     </row>
-    <row r="86" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B86" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3667,7 +3566,7 @@
       <c r="R86" s="2"/>
       <c r="S86" s="2"/>
     </row>
-    <row r="87" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B87" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3690,7 +3589,7 @@
       <c r="R87" s="2"/>
       <c r="S87" s="2"/>
     </row>
-    <row r="88" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B88" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3713,7 +3612,7 @@
       <c r="R88" s="2"/>
       <c r="S88" s="2"/>
     </row>
-    <row r="89" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B89" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3736,7 +3635,7 @@
       <c r="R89" s="2"/>
       <c r="S89" s="2"/>
     </row>
-    <row r="90" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B90" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3759,7 +3658,7 @@
       <c r="R90" s="2"/>
       <c r="S90" s="2"/>
     </row>
-    <row r="91" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B91" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3782,7 +3681,7 @@
       <c r="R91" s="2"/>
       <c r="S91" s="2"/>
     </row>
-    <row r="92" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B92" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3805,7 +3704,7 @@
       <c r="R92" s="2"/>
       <c r="S92" s="2"/>
     </row>
-    <row r="93" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B93" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3828,7 +3727,7 @@
       <c r="R93" s="2"/>
       <c r="S93" s="2"/>
     </row>
-    <row r="94" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B94" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3851,7 +3750,7 @@
       <c r="R94" s="2"/>
       <c r="S94" s="2"/>
     </row>
-    <row r="95" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B95" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3874,7 +3773,7 @@
       <c r="R95" s="2"/>
       <c r="S95" s="2"/>
     </row>
-    <row r="96" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B96" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3897,7 +3796,7 @@
       <c r="R96" s="2"/>
       <c r="S96" s="2"/>
     </row>
-    <row r="97" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B97" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3920,7 +3819,7 @@
       <c r="R97" s="2"/>
       <c r="S97" s="2"/>
     </row>
-    <row r="98" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B98" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3943,7 +3842,7 @@
       <c r="R98" s="2"/>
       <c r="S98" s="2"/>
     </row>
-    <row r="99" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B99" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3966,7 +3865,7 @@
       <c r="R99" s="2"/>
       <c r="S99" s="2"/>
     </row>
-    <row r="100" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B100" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -3989,7 +3888,7 @@
       <c r="R100" s="2"/>
       <c r="S100" s="2"/>
     </row>
-    <row r="101" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="101" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B101" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4012,7 +3911,7 @@
       <c r="R101" s="2"/>
       <c r="S101" s="2"/>
     </row>
-    <row r="102" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="102" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B102" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4035,7 +3934,7 @@
       <c r="R102" s="2"/>
       <c r="S102" s="2"/>
     </row>
-    <row r="103" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="103" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B103" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4058,7 +3957,7 @@
       <c r="R103" s="2"/>
       <c r="S103" s="2"/>
     </row>
-    <row r="104" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="104" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B104" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4081,7 +3980,7 @@
       <c r="R104" s="2"/>
       <c r="S104" s="2"/>
     </row>
-    <row r="105" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="105" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B105" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4104,7 +4003,7 @@
       <c r="R105" s="2"/>
       <c r="S105" s="2"/>
     </row>
-    <row r="106" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="106" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B106" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4127,7 +4026,7 @@
       <c r="R106" s="2"/>
       <c r="S106" s="2"/>
     </row>
-    <row r="107" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="107" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B107" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4150,7 +4049,7 @@
       <c r="R107" s="2"/>
       <c r="S107" s="2"/>
     </row>
-    <row r="108" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="108" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B108" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4173,7 +4072,7 @@
       <c r="R108" s="2"/>
       <c r="S108" s="2"/>
     </row>
-    <row r="109" spans="2:19" x14ac:dyDescent="0.4">
+    <row r="109" spans="2:19" x14ac:dyDescent="1.1000000000000001">
       <c r="B109" s="2" t="str">
         <f t="shared" si="1"/>
         <v/>
@@ -4224,27 +4123,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="12.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:2" x14ac:dyDescent="1.1000000000000001">
       <c r="B2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:2" x14ac:dyDescent="1.1000000000000001">
       <c r="B3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:2" x14ac:dyDescent="1.1000000000000001">
       <c r="B4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:2" x14ac:dyDescent="1.1000000000000001">
       <c r="B5" t="s">
         <v>21</v>
       </c>
